--- a/biology/Zoologie/Chaetodon_miliaris/Chaetodon_miliaris.xlsx
+++ b/biology/Zoologie/Chaetodon_miliaris/Chaetodon_miliaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetodon miliaris
 Le Poisson-papillon grains de millet (Chaetodon miliaris) ou Poisson-papillon citron, est une espèce de poissons de la famille des Chaetodontidae.
@@ -512,7 +524,9 @@
           <t>Sous-genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon grains de millet est un poisson-papillon qui fait partie du sous-genre Heterochaetodon. En 1984, André Maugé et Roland Bauchot avaient créé Heterochaetodon en tant que genre, ce qui donnerait comme nom scientifique pour ce poisson Heterochaetodon miliaris.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : jusqu'à 13 à 16 cm.
 Sa coloration est jaune, plus ou moins claire, avec des séries verticales de points foncés (d'où le nom de poisson-papillon grains de millet), un pédoncule caudal noir et une bande noire passant par les yeux.
@@ -575,11 +591,13 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson nage, parfois en grand banc en quête de nourriture, à des profondeurs allant de 1 à 250 m. Il se nourrit de plancton, d'invertébrés...
 Il détruit souvent les nids d'autres poissons, comme les demoiselles, pour manger leurs œufs.
-Les petits naissent près des côtes de l'océan Indo-Pacifique en avril, mai et juin[1].
+Les petits naissent près des côtes de l'océan Indo-Pacifique en avril, mai et juin.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson-papillon grains de millet se rencontre dans l'océan Indo-Pacifique, en particulier à Hawaii ou il est commun.
 </t>
@@ -639,7 +659,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson peut se garder en aquarium d'eau de mer, étant donné qu'il n'est pas trop spécialisé pour sa nourriture.
 </t>
